--- a/测试单-数图_170331.xlsx
+++ b/测试单-数图_170331.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="171">
   <si>
     <t>编号</t>
   </si>
@@ -943,6 +943,18 @@
   </si>
   <si>
     <t>提示，我收藏的资源、分类无文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要服务器端处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3328,7 +3340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3482,9 +3494,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3541,9 +3550,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4706,10 +4712,10 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4731,7 +4737,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="75" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4788,416 +4794,426 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A3" s="72">
+    <row r="3" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A3" s="70">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="53">
         <v>42763</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="53">
         <v>42777</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42811</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="54">
+      <c r="K3" s="58"/>
+      <c r="L3" s="53">
         <v>42815</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A4" s="72">
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="53">
         <v>42763</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="53">
         <v>42777</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="54">
         <v>42811</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A5" s="72">
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A5" s="70">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="53">
         <v>42763</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="53">
         <v>42777</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="54">
         <v>42811</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="60"/>
-    </row>
-    <row r="6" spans="1:17" s="58" customFormat="1">
-      <c r="A6" s="72">
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="57" customFormat="1">
+      <c r="A6" s="70">
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="53">
         <v>42809</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="53">
         <v>42777</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="54">
         <v>42813</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="54">
+      <c r="K6" s="58"/>
+      <c r="L6" s="53">
         <v>42815</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="60"/>
-    </row>
-    <row r="7" spans="1:17" s="58" customFormat="1">
-      <c r="A7" s="72">
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="59"/>
+    </row>
+    <row r="7" spans="1:17" s="57" customFormat="1">
+      <c r="A7" s="70">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="53">
         <v>42809</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="53">
         <v>42777</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="54">
         <v>42813</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53" t="s">
+      <c r="I7" s="52"/>
+      <c r="J7" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="54">
+      <c r="K7" s="58"/>
+      <c r="L7" s="53">
         <v>42820</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="60"/>
-    </row>
-    <row r="8" spans="1:17" s="58" customFormat="1">
-      <c r="A8" s="72">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="59"/>
+    </row>
+    <row r="8" spans="1:17" s="57" customFormat="1">
+      <c r="A8" s="70">
         <v>6</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="53">
         <v>42809</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="53">
         <v>42777</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="54">
         <v>42813</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="54">
+      <c r="K8" s="58"/>
+      <c r="L8" s="53">
         <v>42820</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="60"/>
-    </row>
-    <row r="9" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A9" s="72">
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="59"/>
+    </row>
+    <row r="9" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A9" s="70">
         <v>7</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="53">
         <v>42809</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <v>42777</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="54">
         <v>42813</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="60"/>
-    </row>
-    <row r="10" spans="1:17" s="58" customFormat="1">
-      <c r="A10" s="72">
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="57" customFormat="1">
+      <c r="A10" s="70">
         <v>8</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>42809</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="53">
         <v>42777</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="54">
         <v>42813</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="60"/>
-    </row>
-    <row r="11" spans="1:17" s="58" customFormat="1">
-      <c r="A11" s="72">
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="57" customFormat="1">
+      <c r="A11" s="70">
         <v>9</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="53">
         <v>42809</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="53">
         <v>42777</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="54">
         <v>42813</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53" t="s">
+      <c r="I11" s="52"/>
+      <c r="J11" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="54">
+      <c r="K11" s="58"/>
+      <c r="L11" s="53">
         <v>42820</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="60"/>
-    </row>
-    <row r="12" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A12" s="72">
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="59"/>
+    </row>
+    <row r="12" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A12" s="70">
         <v>10</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="53">
         <v>42809</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="53">
         <v>42777</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="54">
         <v>42813</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="60"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="13" spans="1:17" s="25" customFormat="1">
-      <c r="A13" s="72">
+      <c r="A13" s="70">
         <v>11</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="66">
         <v>42812</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="66">
         <v>42777</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="66">
         <v>42814</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63" t="s">
+      <c r="I13" s="62"/>
+      <c r="J13" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="67">
+      <c r="K13" s="63"/>
+      <c r="L13" s="66">
         <v>42820</v>
       </c>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="71"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="59"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72">
+      <c r="A14" s="70">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -5229,10 +5245,12 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="51"/>
+      <c r="Q14" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="27">
-      <c r="A15" s="72">
+      <c r="A15" s="70">
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -5253,7 +5271,7 @@
       <c r="G15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="65" t="s">
         <v>118</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -5266,10 +5284,12 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="51"/>
+      <c r="Q15" s="59" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72">
+      <c r="A16" s="70">
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -5303,10 +5323,12 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="24"/>
-      <c r="Q16" s="51"/>
+      <c r="Q16" s="59" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="72">
+      <c r="A17" s="70">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -5338,10 +5360,12 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="51"/>
+      <c r="Q17" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="72">
+      <c r="A18" s="70">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -5371,12 +5395,14 @@
       <c r="L18" s="21"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="O18" s="72" t="s">
+        <v>170</v>
+      </c>
       <c r="P18" s="24"/>
-      <c r="Q18" s="51"/>
+      <c r="Q18" s="59"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="72">
+      <c r="A19" s="70">
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -5408,10 +5434,12 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="24"/>
-      <c r="Q19" s="51"/>
+      <c r="Q19" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="72">
+      <c r="A20" s="70">
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -5443,10 +5471,12 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="51"/>
+      <c r="Q20" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="72">
+      <c r="A21" s="70">
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5478,10 +5508,12 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="51"/>
+      <c r="Q21" s="59" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="27">
-      <c r="A22" s="72">
+      <c r="A22" s="70">
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -5499,7 +5531,7 @@
       <c r="F22" s="24">
         <v>42818</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="51" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="26" t="s">
@@ -5513,10 +5545,12 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="24"/>
-      <c r="Q22" s="51"/>
+      <c r="Q22" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="23" spans="1:17" s="25" customFormat="1" ht="27">
-      <c r="A23" s="72">
+      <c r="A23" s="70">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -5534,7 +5568,7 @@
       <c r="F23" s="24">
         <v>42818</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="51" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="26" t="s">
@@ -5548,10 +5582,12 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="24"/>
-      <c r="Q23" s="51"/>
+      <c r="Q23" s="59" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:17" s="25" customFormat="1" ht="27">
-      <c r="A24" s="72">
+      <c r="A24" s="70">
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -5569,7 +5605,7 @@
       <c r="F24" s="24">
         <v>42818</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="51" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="26" t="s">
@@ -5583,10 +5619,12 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="24"/>
-      <c r="Q24" s="51"/>
+      <c r="Q24" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="25" spans="1:17" s="25" customFormat="1" ht="40.5">
-      <c r="A25" s="72">
+      <c r="A25" s="70">
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -5604,7 +5642,7 @@
       <c r="F25" s="24">
         <v>42818</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="51" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="26" t="s">
@@ -5618,10 +5656,12 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="24"/>
-      <c r="Q25" s="51"/>
+      <c r="Q25" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:17" s="25" customFormat="1" ht="27">
-      <c r="A26" s="72">
+      <c r="A26" s="70">
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -5653,10 +5693,12 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="24"/>
-      <c r="Q26" s="51"/>
+      <c r="Q26" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="27" spans="1:17" s="25" customFormat="1">
-      <c r="A27" s="72">
+      <c r="A27" s="70">
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -5680,7 +5722,7 @@
       <c r="H27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="62" t="s">
         <v>150</v>
       </c>
       <c r="J27" s="12"/>
@@ -5690,10 +5732,12 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="24"/>
-      <c r="Q27" s="51"/>
+      <c r="Q27" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="28" spans="1:17" s="25" customFormat="1" ht="27">
-      <c r="A28" s="72">
+      <c r="A28" s="70">
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -5725,10 +5769,12 @@
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="24"/>
-      <c r="Q28" s="51"/>
+      <c r="Q28" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="72">
+      <c r="A29" s="70">
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -5753,21 +5799,21 @@
         <v>52</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="62" t="s">
         <v>151</v>
       </c>
       <c r="K29" s="21"/>
-      <c r="L29" s="67">
+      <c r="L29" s="66">
         <v>42822</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="24"/>
-      <c r="Q29" s="51"/>
+      <c r="Q29" s="59"/>
     </row>
     <row r="30" spans="1:17" ht="27">
-      <c r="A30" s="72">
+      <c r="A30" s="70">
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -5788,21 +5834,23 @@
       <c r="G30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="65" t="s">
         <v>153</v>
       </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="63"/>
+      <c r="J30" s="62"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="24"/>
-      <c r="Q30" s="51"/>
+      <c r="Q30" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="27">
-      <c r="A31" s="72">
+      <c r="A31" s="70">
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -5834,10 +5882,12 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="51"/>
+      <c r="Q31" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="72">
+      <c r="A32" s="70">
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -5869,10 +5919,12 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="24"/>
-      <c r="Q32" s="51"/>
+      <c r="Q32" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="27">
-      <c r="A33" s="72">
+      <c r="A33" s="70">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -5904,10 +5956,12 @@
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="24"/>
-      <c r="Q33" s="51"/>
+      <c r="Q33" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="27">
-      <c r="A34" s="72">
+      <c r="A34" s="70">
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -5941,10 +5995,12 @@
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="24"/>
-      <c r="Q34" s="51"/>
+      <c r="Q34" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="27">
-      <c r="A35" s="72">
+      <c r="A35" s="70">
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -5976,10 +6032,12 @@
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="24"/>
-      <c r="Q35" s="51"/>
+      <c r="Q35" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="40.5">
-      <c r="A36" s="72">
+      <c r="A36" s="70">
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -6011,1015 +6069,1073 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="24"/>
-      <c r="Q36" s="51"/>
+      <c r="Q36" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="27">
-      <c r="A37" s="72">
+      <c r="A37" s="70">
         <v>35</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="66">
         <v>42820</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="66">
         <v>42812</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="66">
         <v>42821</v>
       </c>
-      <c r="G37" s="65" t="s">
+      <c r="G37" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="66" t="s">
+      <c r="H37" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="71"/>
-    </row>
-    <row r="38" spans="1:17" s="69" customFormat="1" ht="27">
-      <c r="A38" s="72">
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="68" customFormat="1" ht="27">
+      <c r="A38" s="70">
         <v>36</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="66">
         <v>42820</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="66">
         <v>42812</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="66">
         <v>42821</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="71"/>
-    </row>
-    <row r="39" spans="1:17" s="69" customFormat="1">
-      <c r="A39" s="72">
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="68" customFormat="1">
+      <c r="A39" s="70">
         <v>37</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="66">
         <v>42820</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="66">
         <v>42812</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="66">
         <v>42821</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="64" t="s">
         <v>88</v>
       </c>
       <c r="H39" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="63" t="s">
+      <c r="I39" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="63"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="71"/>
-    </row>
-    <row r="40" spans="1:17" s="69" customFormat="1">
-      <c r="A40" s="72">
+      <c r="J39" s="62"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="68" customFormat="1">
+      <c r="A40" s="70">
         <v>38</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="66">
         <v>42820</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="66">
         <v>42812</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="66">
         <v>42821</v>
       </c>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="63" t="s">
+      <c r="I40" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="71"/>
-    </row>
-    <row r="41" spans="1:17" s="69" customFormat="1">
-      <c r="A41" s="72">
+      <c r="J40" s="62"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="68" customFormat="1">
+      <c r="A41" s="70">
         <v>39</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="67">
+      <c r="D41" s="66">
         <v>42820</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="66">
         <v>42812</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="66">
         <v>42821</v>
       </c>
-      <c r="G41" s="65" t="s">
+      <c r="G41" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="70" t="s">
+      <c r="H41" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="63" t="s">
+      <c r="I41" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="63"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="71"/>
-    </row>
-    <row r="42" spans="1:17" s="69" customFormat="1" ht="40.5">
-      <c r="A42" s="72">
+      <c r="J41" s="62"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="68" customFormat="1" ht="40.5">
+      <c r="A42" s="70">
         <v>40</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="67">
+      <c r="D42" s="66">
         <v>42820</v>
       </c>
-      <c r="E42" s="67">
+      <c r="E42" s="66">
         <v>42812</v>
       </c>
-      <c r="F42" s="67">
+      <c r="F42" s="66">
         <v>42821</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H42" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="J42" s="63"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="71"/>
-    </row>
-    <row r="43" spans="1:17" s="69" customFormat="1" ht="27">
-      <c r="A43" s="72">
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="68" customFormat="1" ht="27">
+      <c r="A43" s="70">
         <v>41</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="67">
+      <c r="D43" s="66">
         <v>42820</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E43" s="66">
         <v>42812</v>
       </c>
-      <c r="F43" s="67">
+      <c r="F43" s="66">
         <v>42821</v>
       </c>
-      <c r="G43" s="68" t="s">
+      <c r="G43" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="75" t="s">
+      <c r="H43" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="74" t="s">
+      <c r="I43" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="71"/>
-    </row>
-    <row r="44" spans="1:17" s="69" customFormat="1" ht="40.5">
-      <c r="A44" s="72">
+      <c r="J43" s="62"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="68" customFormat="1" ht="40.5">
+      <c r="A44" s="70">
         <v>42</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="67">
+      <c r="D44" s="66">
         <v>42820</v>
       </c>
-      <c r="E44" s="67">
+      <c r="E44" s="66">
         <v>42812</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="66">
         <v>42821</v>
       </c>
-      <c r="G44" s="68" t="s">
+      <c r="G44" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="70" t="s">
+      <c r="H44" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="62" t="s">
+      <c r="I44" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="J44" s="63"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="71"/>
-    </row>
-    <row r="45" spans="1:17" s="69" customFormat="1" ht="27">
-      <c r="A45" s="72">
+      <c r="J44" s="62"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="68" customFormat="1" ht="27">
+      <c r="A45" s="70">
         <v>43</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D45" s="66">
         <v>42820</v>
       </c>
-      <c r="E45" s="67">
+      <c r="E45" s="66">
         <v>42812</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="66">
         <v>42821</v>
       </c>
-      <c r="G45" s="65" t="s">
+      <c r="G45" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="70" t="s">
+      <c r="H45" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="I45" s="63" t="s">
+      <c r="I45" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="63"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="71"/>
-    </row>
-    <row r="46" spans="1:17" s="69" customFormat="1" ht="27">
-      <c r="A46" s="72">
+      <c r="J45" s="62"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="68" customFormat="1" ht="27">
+      <c r="A46" s="70">
         <v>44</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="66">
         <v>42820</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="66">
         <v>42812</v>
       </c>
-      <c r="F46" s="67">
+      <c r="F46" s="66">
         <v>42821</v>
       </c>
-      <c r="G46" s="65" t="s">
+      <c r="G46" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="I46" s="63" t="s">
+      <c r="I46" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J46" s="63"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="71"/>
-    </row>
-    <row r="47" spans="1:17" s="69" customFormat="1">
-      <c r="A47" s="72">
+      <c r="J46" s="62"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="68" customFormat="1">
+      <c r="A47" s="70">
         <v>45</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="67">
+      <c r="D47" s="66">
         <v>42820</v>
       </c>
-      <c r="E47" s="67">
+      <c r="E47" s="66">
         <v>42812</v>
       </c>
-      <c r="F47" s="67">
+      <c r="F47" s="66">
         <v>42821</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G47" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="H47" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="63" t="s">
+      <c r="I47" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J47" s="63"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="71"/>
-    </row>
-    <row r="48" spans="1:17" s="69" customFormat="1" ht="27">
-      <c r="A48" s="72">
+      <c r="J47" s="62"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="68" customFormat="1" ht="27">
+      <c r="A48" s="70">
         <v>46</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="67">
+      <c r="D48" s="66">
         <v>42820</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="66">
         <v>42777</v>
       </c>
-      <c r="F48" s="67">
+      <c r="F48" s="66">
         <v>42825</v>
       </c>
-      <c r="G48" s="65" t="s">
+      <c r="G48" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="H48" s="61" t="s">
+      <c r="H48" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="71"/>
-    </row>
-    <row r="49" spans="1:17" s="69" customFormat="1" ht="27">
-      <c r="A49" s="72">
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="68" customFormat="1" ht="27">
+      <c r="A49" s="70">
         <v>47</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="67">
+      <c r="D49" s="66">
         <v>42820</v>
       </c>
-      <c r="E49" s="67">
+      <c r="E49" s="66">
         <v>42777</v>
       </c>
-      <c r="F49" s="67">
+      <c r="F49" s="66">
         <v>42825</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G49" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="H49" s="61" t="s">
+      <c r="H49" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="71"/>
-    </row>
-    <row r="50" spans="1:17" s="69" customFormat="1" ht="27">
-      <c r="A50" s="72">
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="68" customFormat="1" ht="27">
+      <c r="A50" s="70">
         <v>48</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="67">
+      <c r="D50" s="66">
         <v>42820</v>
       </c>
-      <c r="E50" s="67">
+      <c r="E50" s="66">
         <v>42777</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="66">
         <v>42825</v>
       </c>
-      <c r="G50" s="65" t="s">
+      <c r="G50" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="H50" s="70" t="s">
+      <c r="H50" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="71"/>
-    </row>
-    <row r="51" spans="1:17" s="69" customFormat="1" ht="202.5">
-      <c r="A51" s="72">
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="68" customFormat="1" ht="202.5">
+      <c r="A51" s="70">
         <v>49</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="67">
+      <c r="D51" s="66">
         <v>42820</v>
       </c>
-      <c r="E51" s="67">
+      <c r="E51" s="66">
         <v>42777</v>
       </c>
-      <c r="F51" s="67">
+      <c r="F51" s="66">
         <v>42825</v>
       </c>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="75" t="s">
+      <c r="H51" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="I51" s="63" t="s">
+      <c r="I51" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J51" s="63"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="71"/>
-    </row>
-    <row r="52" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A52" s="72">
+      <c r="J51" s="62"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A52" s="70">
         <v>50</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="67">
+      <c r="D52" s="66">
         <v>42820</v>
       </c>
-      <c r="E52" s="67">
+      <c r="E52" s="66">
         <v>42777</v>
       </c>
-      <c r="F52" s="67">
+      <c r="F52" s="66">
         <v>42825</v>
       </c>
-      <c r="G52" s="65" t="s">
+      <c r="G52" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="H52" s="66" t="s">
+      <c r="H52" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="60"/>
-    </row>
-    <row r="53" spans="1:17" s="58" customFormat="1" ht="40.5">
-      <c r="A53" s="72">
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="57" customFormat="1" ht="40.5">
+      <c r="A53" s="70">
         <v>51</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="67">
+      <c r="D53" s="66">
         <v>42820</v>
       </c>
-      <c r="E53" s="67">
+      <c r="E53" s="66">
         <v>42777</v>
       </c>
-      <c r="F53" s="67">
+      <c r="F53" s="66">
         <v>42825</v>
       </c>
-      <c r="G53" s="65" t="s">
+      <c r="G53" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="H53" s="66" t="s">
+      <c r="H53" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="60"/>
-    </row>
-    <row r="54" spans="1:17" s="58" customFormat="1" ht="40.5">
-      <c r="A54" s="72">
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="57" customFormat="1" ht="40.5">
+      <c r="A54" s="70">
         <v>52</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="67">
+      <c r="D54" s="66">
         <v>42820</v>
       </c>
-      <c r="E54" s="67">
+      <c r="E54" s="66">
         <v>42777</v>
       </c>
-      <c r="F54" s="67">
+      <c r="F54" s="66">
         <v>42825</v>
       </c>
-      <c r="G54" s="65" t="s">
+      <c r="G54" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="H54" s="66" t="s">
+      <c r="H54" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="60"/>
-    </row>
-    <row r="55" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A55" s="72">
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A55" s="70">
         <v>53</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="67">
+      <c r="D55" s="66">
         <v>42820</v>
       </c>
-      <c r="E55" s="67">
+      <c r="E55" s="66">
         <v>42777</v>
       </c>
-      <c r="F55" s="67">
+      <c r="F55" s="66">
         <v>42825</v>
       </c>
-      <c r="G55" s="65" t="s">
+      <c r="G55" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="66" t="s">
+      <c r="H55" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="60"/>
-    </row>
-    <row r="56" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A56" s="72">
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A56" s="70">
         <v>54</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="66">
         <v>42820</v>
       </c>
-      <c r="E56" s="67">
+      <c r="E56" s="66">
         <v>42777</v>
       </c>
-      <c r="F56" s="67">
+      <c r="F56" s="66">
         <v>42825</v>
       </c>
-      <c r="G56" s="65" t="s">
+      <c r="G56" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="66" t="s">
+      <c r="H56" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="60"/>
-    </row>
-    <row r="57" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A57" s="72">
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A57" s="70">
         <v>55</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="67">
+      <c r="D57" s="66">
         <v>42820</v>
       </c>
-      <c r="E57" s="67">
+      <c r="E57" s="66">
         <v>42777</v>
       </c>
-      <c r="F57" s="67">
+      <c r="F57" s="66">
         <v>42825</v>
       </c>
-      <c r="G57" s="65" t="s">
+      <c r="G57" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="H57" s="66" t="s">
+      <c r="H57" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="60"/>
-    </row>
-    <row r="58" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A58" s="72">
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A58" s="70">
         <v>56</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="67">
+      <c r="D58" s="66">
         <v>42820</v>
       </c>
-      <c r="E58" s="67">
+      <c r="E58" s="66">
         <v>42777</v>
       </c>
-      <c r="F58" s="67">
+      <c r="F58" s="66">
         <v>42825</v>
       </c>
-      <c r="G58" s="65" t="s">
+      <c r="G58" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="H58" s="66" t="s">
+      <c r="H58" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="60"/>
-    </row>
-    <row r="59" spans="1:17" s="58" customFormat="1">
-      <c r="A59" s="72">
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="57" customFormat="1">
+      <c r="A59" s="70">
         <v>57</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="67">
+      <c r="D59" s="66">
         <v>42820</v>
       </c>
-      <c r="E59" s="67">
+      <c r="E59" s="66">
         <v>42777</v>
       </c>
-      <c r="F59" s="67">
+      <c r="F59" s="66">
         <v>42825</v>
       </c>
-      <c r="G59" s="65" t="s">
+      <c r="G59" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="H59" s="66" t="s">
+      <c r="H59" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="60"/>
-    </row>
-    <row r="60" spans="1:17" s="69" customFormat="1" ht="27">
-      <c r="A60" s="72">
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="68" customFormat="1" ht="27">
+      <c r="A60" s="70">
         <v>58</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="67">
+      <c r="D60" s="66">
         <v>42820</v>
       </c>
-      <c r="E60" s="67">
+      <c r="E60" s="66">
         <v>42777</v>
       </c>
-      <c r="F60" s="67">
+      <c r="F60" s="66">
         <v>42825</v>
       </c>
-      <c r="G60" s="68" t="s">
+      <c r="G60" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H60" s="76" t="s">
+      <c r="H60" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63" t="s">
+      <c r="I60" s="62"/>
+      <c r="J60" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="71"/>
-    </row>
-    <row r="61" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A61" s="72">
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="66"/>
+      <c r="Q60" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A61" s="70">
         <v>59</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="C61" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="67">
+      <c r="D61" s="66">
         <v>42820</v>
       </c>
-      <c r="E61" s="67">
+      <c r="E61" s="66">
         <v>42812</v>
       </c>
-      <c r="F61" s="67">
+      <c r="F61" s="66">
         <v>42825</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="G61" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="H61" s="66" t="s">
+      <c r="H61" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="60"/>
-    </row>
-    <row r="62" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A62" s="72">
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A62" s="70">
         <v>60</v>
       </c>
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="67">
+      <c r="D62" s="66">
         <v>42820</v>
       </c>
-      <c r="E62" s="67">
+      <c r="E62" s="66">
         <v>42812</v>
       </c>
-      <c r="F62" s="67">
+      <c r="F62" s="66">
         <v>42825</v>
       </c>
-      <c r="G62" s="65" t="s">
+      <c r="G62" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="H62" s="66" t="s">
+      <c r="H62" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="I62" s="63" t="s">
+      <c r="I62" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="J62" s="53"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="60"/>
-    </row>
-    <row r="63" spans="1:17" s="58" customFormat="1" ht="27">
-      <c r="A63" s="72">
+      <c r="J62" s="52"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="57" customFormat="1" ht="27">
+      <c r="A63" s="70">
         <v>61</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="67">
+      <c r="D63" s="66">
         <v>42820</v>
       </c>
-      <c r="E63" s="67">
+      <c r="E63" s="66">
         <v>42812</v>
       </c>
-      <c r="F63" s="67">
+      <c r="F63" s="66">
         <v>42825</v>
       </c>
-      <c r="G63" s="65" t="s">
+      <c r="G63" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="H63" s="66" t="s">
+      <c r="H63" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="I63" s="63" t="s">
+      <c r="I63" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="J63" s="53"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="60"/>
-    </row>
-    <row r="64" spans="1:17" s="58" customFormat="1" ht="40.5">
-      <c r="A64" s="72">
+      <c r="J63" s="52"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="57" customFormat="1" ht="40.5">
+      <c r="A64" s="70">
         <v>62</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="67">
+      <c r="D64" s="66">
         <v>42820</v>
       </c>
-      <c r="E64" s="67">
+      <c r="E64" s="66">
         <v>42812</v>
       </c>
-      <c r="F64" s="67">
+      <c r="F64" s="66">
         <v>42825</v>
       </c>
-      <c r="G64" s="78" t="s">
+      <c r="G64" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="H64" s="66" t="s">
+      <c r="H64" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="I64" s="63" t="s">
+      <c r="I64" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="J64" s="53"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="60"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="59" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q64"/>

--- a/测试单-数图_170331.xlsx
+++ b/测试单-数图_170331.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="134" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="17" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="200">
   <si>
     <t>编号</t>
   </si>
@@ -370,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>播放界面，标题栏书名，目前规格实现为仅显示部分字符。=》建议改为滚动方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,11 +477,6 @@
   </si>
   <si>
     <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册，填完信息选“注册”后提示“网络未连接”。字串可能不符实际情况。
-=》改为“注册失败，网络未连接或信息错误”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -954,7 +945,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要服务器端处理</t>
+    <t>编辑框无法滚动显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>添加确认对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册，填完信息选“注册”后提示“网络未连接”。字串可能不符实际情况。
+=》改为“注册失败，网络未连接或信息错误”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wzp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有播报，可能音量较小误以为没有播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要服务器端处理，与盲文社联系，请他们协助解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>添加提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有下载内容变化时才刷新列表和播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wzp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本未见此现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在所有功能菜单中删除确认对话框选否后，返回列表时增加朗读当前焦点行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wzp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加确认对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从朗读界面返回时刷新阅读历史列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在公共功能中增加一个方法，可以朗读符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放界面，标题栏书名，目前规格实现为仅显示部分字符。=》建议改为滚动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加列表图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4581,7 +4695,7 @@
         <v>42815</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4592,13 +4706,13 @@
         <v>42820</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E4" s="19">
         <v>42819</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="27" customFormat="1">
@@ -4712,10 +4826,10 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4733,12 +4847,13 @@
     <col min="12" max="12" width="9.125" style="50" customWidth="1"/>
     <col min="13" max="14" width="9" style="50"/>
     <col min="15" max="15" width="23.75" style="50" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="50"/>
+    <col min="16" max="16" width="9.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1">
@@ -4814,7 +4929,7 @@
         <v>42811</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="56" t="s">
         <v>66</v>
@@ -4852,10 +4967,10 @@
         <v>42811</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
@@ -4866,7 +4981,7 @@
       <c r="O4" s="52"/>
       <c r="P4" s="53"/>
       <c r="Q4" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="27">
@@ -4889,21 +5004,27 @@
         <v>42811</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
+      <c r="M5" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>168</v>
+      </c>
       <c r="P5" s="53"/>
       <c r="Q5" s="59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1">
@@ -4972,7 +5093,7 @@
       </c>
       <c r="I7" s="52"/>
       <c r="J7" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="53">
@@ -5011,7 +5132,7 @@
       </c>
       <c r="I8" s="52"/>
       <c r="J8" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="58"/>
       <c r="L8" s="53">
@@ -5046,18 +5167,24 @@
         <v>73</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
       <c r="K9" s="58"/>
       <c r="L9" s="58"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
+      <c r="N9" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="P9" s="55">
+        <v>42828</v>
+      </c>
       <c r="Q9" s="59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1">
@@ -5090,11 +5217,17 @@
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="53"/>
+      <c r="N10" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="55">
+        <v>42828</v>
+      </c>
       <c r="Q10" s="59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1">
@@ -5124,7 +5257,7 @@
       </c>
       <c r="I11" s="52"/>
       <c r="J11" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K11" s="58"/>
       <c r="L11" s="53">
@@ -5133,7 +5266,7 @@
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
-      <c r="P11" s="53"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="59"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="27">
@@ -5156,10 +5289,10 @@
         <v>42813</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H12" s="71" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
@@ -5167,10 +5300,14 @@
       <c r="L12" s="58"/>
       <c r="M12" s="52"/>
       <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
+      <c r="O12" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="P12" s="55">
+        <v>42828</v>
+      </c>
       <c r="Q12" s="59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="25" customFormat="1">
@@ -5178,10 +5315,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="66">
         <v>42812</v>
@@ -5200,7 +5337,7 @@
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K13" s="63"/>
       <c r="L13" s="66">
@@ -5246,7 +5383,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="59" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="27">
@@ -5272,7 +5409,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>35</v>
@@ -5285,7 +5422,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="59" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -5324,10 +5461,10 @@
       <c r="O16" s="12"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="27">
       <c r="A17" s="70">
         <v>15</v>
       </c>
@@ -5356,15 +5493,16 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="12"/>
+      <c r="M17" s="62" t="s">
+        <v>169</v>
+      </c>
       <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="62" t="s">
+        <v>179</v>
+      </c>
       <c r="P17" s="24"/>
-      <c r="Q17" s="59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:17" ht="27">
       <c r="A18" s="70">
         <v>16</v>
       </c>
@@ -5393,13 +5531,17 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="12"/>
+      <c r="M18" s="62" t="s">
+        <v>169</v>
+      </c>
       <c r="N18" s="12"/>
       <c r="O18" s="72" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="P18" s="24"/>
-      <c r="Q18" s="59"/>
+      <c r="Q18" s="59" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="70">
@@ -5430,15 +5572,23 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="24"/>
+      <c r="M19" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="N19" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" s="55">
+        <v>42828</v>
+      </c>
       <c r="Q19" s="59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="27">
       <c r="A20" s="70">
         <v>18</v>
       </c>
@@ -5467,12 +5617,20 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="24"/>
+      <c r="M20" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="55">
+        <v>42828</v>
+      </c>
       <c r="Q20" s="59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5507,9 +5665,9 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="24"/>
+      <c r="P21" s="64"/>
       <c r="Q21" s="59" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="27">
@@ -5543,10 +5701,12 @@
       <c r="L22" s="21"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="24"/>
+      <c r="O22" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" s="64"/>
       <c r="Q22" s="59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="25" customFormat="1" ht="27">
@@ -5580,10 +5740,12 @@
       <c r="L23" s="21"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="24"/>
+      <c r="O23" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="P23" s="64"/>
       <c r="Q23" s="59" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="25" customFormat="1" ht="27">
@@ -5617,10 +5779,12 @@
       <c r="L24" s="21"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="24"/>
+      <c r="O24" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="64"/>
       <c r="Q24" s="59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="25" customFormat="1" ht="40.5">
@@ -5654,13 +5818,15 @@
       <c r="L25" s="21"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="24"/>
+      <c r="O25" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" s="64"/>
       <c r="Q25" s="59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="25" customFormat="1" ht="27">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="25" customFormat="1" ht="40.5">
       <c r="A26" s="70">
         <v>24</v>
       </c>
@@ -5689,12 +5855,20 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="24"/>
+      <c r="M26" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="N26" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="64">
+        <v>42828</v>
+      </c>
       <c r="Q26" s="59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="25" customFormat="1">
@@ -5723,7 +5897,7 @@
         <v>49</v>
       </c>
       <c r="I27" s="62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
@@ -5731,9 +5905,9 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="24"/>
+      <c r="P27" s="64"/>
       <c r="Q27" s="59" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="25" customFormat="1" ht="27">
@@ -5765,12 +5939,18 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="12"/>
+      <c r="M28" s="62" t="s">
+        <v>188</v>
+      </c>
       <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="24"/>
+      <c r="O28" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="64">
+        <v>42829</v>
+      </c>
       <c r="Q28" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5800,7 +5980,7 @@
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="66">
@@ -5809,7 +5989,7 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="24"/>
+      <c r="P29" s="64"/>
       <c r="Q29" s="59"/>
     </row>
     <row r="30" spans="1:17" ht="27">
@@ -5835,18 +6015,24 @@
         <v>55</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="62"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="12"/>
+      <c r="M30" s="62" t="s">
+        <v>181</v>
+      </c>
       <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="24"/>
+      <c r="O30" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" s="64">
+        <v>42829</v>
+      </c>
       <c r="Q30" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="27">
@@ -5878,12 +6064,18 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="62" t="s">
+        <v>181</v>
+      </c>
       <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="24"/>
+      <c r="O31" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="P31" s="64">
+        <v>42829</v>
+      </c>
       <c r="Q31" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5915,12 +6107,18 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
-      <c r="M32" s="12"/>
+      <c r="M32" s="62" t="s">
+        <v>181</v>
+      </c>
       <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="24"/>
+      <c r="O32" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="P32" s="64">
+        <v>42829</v>
+      </c>
       <c r="Q32" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="27">
@@ -5952,12 +6150,18 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="12"/>
+      <c r="M33" s="62" t="s">
+        <v>181</v>
+      </c>
       <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="24"/>
+      <c r="O33" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="64">
+        <v>42829</v>
+      </c>
       <c r="Q33" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="27">
@@ -5993,10 +6197,12 @@
       <c r="L34" s="21"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="24"/>
+      <c r="O34" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="64"/>
       <c r="Q34" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="27">
@@ -6031,9 +6237,9 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
-      <c r="P35" s="24"/>
+      <c r="P35" s="64"/>
       <c r="Q35" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="40.5">
@@ -6065,12 +6271,18 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
-      <c r="M36" s="12"/>
+      <c r="M36" s="62" t="s">
+        <v>181</v>
+      </c>
       <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="24"/>
+      <c r="O36" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="P36" s="64">
+        <v>42829</v>
+      </c>
       <c r="Q36" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="27">
@@ -6105,9 +6317,9 @@
       <c r="M37" s="62"/>
       <c r="N37" s="62"/>
       <c r="O37" s="62"/>
-      <c r="P37" s="66"/>
+      <c r="P37" s="64"/>
       <c r="Q37" s="59" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6130,7 +6342,7 @@
         <v>42821</v>
       </c>
       <c r="G38" s="64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H38" s="65" t="s">
         <v>89</v>
@@ -6142,9 +6354,9 @@
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
       <c r="O38" s="62"/>
-      <c r="P38" s="66"/>
+      <c r="P38" s="64"/>
       <c r="Q38" s="59" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="68" customFormat="1">
@@ -6178,12 +6390,18 @@
       <c r="J39" s="62"/>
       <c r="K39" s="63"/>
       <c r="L39" s="63"/>
-      <c r="M39" s="62"/>
+      <c r="M39" s="62" t="s">
+        <v>188</v>
+      </c>
       <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="66"/>
+      <c r="O39" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="P39" s="64">
+        <v>42829</v>
+      </c>
       <c r="Q39" s="59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="68" customFormat="1">
@@ -6206,13 +6424,13 @@
         <v>42821</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H40" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="62" t="s">
         <v>93</v>
-      </c>
-      <c r="I40" s="62" t="s">
-        <v>94</v>
       </c>
       <c r="J40" s="62"/>
       <c r="K40" s="63"/>
@@ -6220,9 +6438,9 @@
       <c r="M40" s="62"/>
       <c r="N40" s="62"/>
       <c r="O40" s="62"/>
-      <c r="P40" s="66"/>
+      <c r="P40" s="64"/>
       <c r="Q40" s="59" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="68" customFormat="1">
@@ -6245,13 +6463,13 @@
         <v>42821</v>
       </c>
       <c r="G41" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="69" t="s">
-        <v>97</v>
-      </c>
       <c r="I41" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J41" s="62"/>
       <c r="K41" s="63"/>
@@ -6259,9 +6477,9 @@
       <c r="M41" s="62"/>
       <c r="N41" s="62"/>
       <c r="O41" s="62"/>
-      <c r="P41" s="66"/>
+      <c r="P41" s="64"/>
       <c r="Q41" s="59" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="68" customFormat="1" ht="40.5">
@@ -6284,13 +6502,13 @@
         <v>42821</v>
       </c>
       <c r="G42" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I42" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" s="62"/>
       <c r="K42" s="63"/>
@@ -6298,9 +6516,9 @@
       <c r="M42" s="62"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
-      <c r="P42" s="66"/>
+      <c r="P42" s="64"/>
       <c r="Q42" s="59" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6323,10 +6541,10 @@
         <v>42821</v>
       </c>
       <c r="G43" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H43" s="73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I43" s="72" t="s">
         <v>80</v>
@@ -6337,9 +6555,9 @@
       <c r="M43" s="62"/>
       <c r="N43" s="62"/>
       <c r="O43" s="62"/>
-      <c r="P43" s="66"/>
+      <c r="P43" s="64"/>
       <c r="Q43" s="59" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="68" customFormat="1" ht="40.5">
@@ -6362,13 +6580,13 @@
         <v>42821</v>
       </c>
       <c r="G44" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="H44" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>103</v>
       </c>
       <c r="J44" s="62"/>
       <c r="K44" s="63"/>
@@ -6376,9 +6594,9 @@
       <c r="M44" s="62"/>
       <c r="N44" s="62"/>
       <c r="O44" s="62"/>
-      <c r="P44" s="66"/>
+      <c r="P44" s="64"/>
       <c r="Q44" s="59" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6401,23 +6619,29 @@
         <v>42821</v>
       </c>
       <c r="G45" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" s="62" t="s">
         <v>105</v>
-      </c>
-      <c r="H45" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="I45" s="62" t="s">
-        <v>106</v>
       </c>
       <c r="J45" s="62"/>
       <c r="K45" s="63"/>
       <c r="L45" s="63"/>
-      <c r="M45" s="62"/>
+      <c r="M45" s="62" t="s">
+        <v>197</v>
+      </c>
       <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="66"/>
+      <c r="O45" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="P45" s="64">
+        <v>42830</v>
+      </c>
       <c r="Q45" s="59" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6440,13 +6664,13 @@
         <v>42821</v>
       </c>
       <c r="G46" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="H46" s="69" t="s">
-        <v>110</v>
-      </c>
       <c r="I46" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J46" s="62"/>
       <c r="K46" s="63"/>
@@ -6454,9 +6678,9 @@
       <c r="M46" s="62"/>
       <c r="N46" s="62"/>
       <c r="O46" s="62"/>
-      <c r="P46" s="66"/>
+      <c r="P46" s="64"/>
       <c r="Q46" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="68" customFormat="1">
@@ -6479,13 +6703,13 @@
         <v>42821</v>
       </c>
       <c r="G47" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I47" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J47" s="62"/>
       <c r="K47" s="63"/>
@@ -6493,9 +6717,9 @@
       <c r="M47" s="62"/>
       <c r="N47" s="62"/>
       <c r="O47" s="62"/>
-      <c r="P47" s="66"/>
+      <c r="P47" s="64"/>
       <c r="Q47" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6518,10 +6742,10 @@
         <v>42825</v>
       </c>
       <c r="G48" s="64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H48" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I48" s="62"/>
       <c r="J48" s="62"/>
@@ -6530,9 +6754,9 @@
       <c r="M48" s="62"/>
       <c r="N48" s="62"/>
       <c r="O48" s="62"/>
-      <c r="P48" s="66"/>
+      <c r="P48" s="64"/>
       <c r="Q48" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6555,10 +6779,10 @@
         <v>42825</v>
       </c>
       <c r="G49" s="64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I49" s="62"/>
       <c r="J49" s="62"/>
@@ -6567,9 +6791,9 @@
       <c r="M49" s="62"/>
       <c r="N49" s="62"/>
       <c r="O49" s="62"/>
-      <c r="P49" s="66"/>
+      <c r="P49" s="64"/>
       <c r="Q49" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6592,10 +6816,10 @@
         <v>42825</v>
       </c>
       <c r="G50" s="64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I50" s="62"/>
       <c r="J50" s="62"/>
@@ -6604,9 +6828,9 @@
       <c r="M50" s="62"/>
       <c r="N50" s="62"/>
       <c r="O50" s="62"/>
-      <c r="P50" s="66"/>
+      <c r="P50" s="64"/>
       <c r="Q50" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="68" customFormat="1" ht="202.5">
@@ -6629,13 +6853,13 @@
         <v>42825</v>
       </c>
       <c r="G51" s="67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H51" s="73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I51" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J51" s="62"/>
       <c r="K51" s="63"/>
@@ -6643,9 +6867,9 @@
       <c r="M51" s="62"/>
       <c r="N51" s="62"/>
       <c r="O51" s="62"/>
-      <c r="P51" s="66"/>
+      <c r="P51" s="64"/>
       <c r="Q51" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="57" customFormat="1" ht="27">
@@ -6668,10 +6892,10 @@
         <v>42825</v>
       </c>
       <c r="G52" s="64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H52" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
@@ -6680,9 +6904,9 @@
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
       <c r="O52" s="52"/>
-      <c r="P52" s="53"/>
+      <c r="P52" s="55"/>
       <c r="Q52" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="57" customFormat="1" ht="40.5">
@@ -6705,10 +6929,10 @@
         <v>42825</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H53" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I53" s="52"/>
       <c r="J53" s="52"/>
@@ -6717,9 +6941,9 @@
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
       <c r="O53" s="52"/>
-      <c r="P53" s="53"/>
+      <c r="P53" s="55"/>
       <c r="Q53" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="57" customFormat="1" ht="40.5">
@@ -6742,10 +6966,10 @@
         <v>42825</v>
       </c>
       <c r="G54" s="64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H54" s="65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
@@ -6754,9 +6978,9 @@
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
       <c r="O54" s="52"/>
-      <c r="P54" s="53"/>
+      <c r="P54" s="55"/>
       <c r="Q54" s="59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="57" customFormat="1" ht="27">
@@ -6779,10 +7003,10 @@
         <v>42825</v>
       </c>
       <c r="G55" s="64" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H55" s="65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
@@ -6791,9 +7015,9 @@
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
       <c r="O55" s="52"/>
-      <c r="P55" s="53"/>
+      <c r="P55" s="55"/>
       <c r="Q55" s="59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="57" customFormat="1" ht="27">
@@ -6816,10 +7040,10 @@
         <v>42825</v>
       </c>
       <c r="G56" s="64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H56" s="65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
@@ -6828,9 +7052,9 @@
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
       <c r="O56" s="52"/>
-      <c r="P56" s="53"/>
+      <c r="P56" s="55"/>
       <c r="Q56" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="57" customFormat="1" ht="27">
@@ -6853,10 +7077,10 @@
         <v>42825</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H57" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I57" s="52"/>
       <c r="J57" s="52"/>
@@ -6865,9 +7089,9 @@
       <c r="M57" s="52"/>
       <c r="N57" s="52"/>
       <c r="O57" s="52"/>
-      <c r="P57" s="53"/>
+      <c r="P57" s="55"/>
       <c r="Q57" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="57" customFormat="1" ht="27">
@@ -6890,10 +7114,10 @@
         <v>42825</v>
       </c>
       <c r="G58" s="64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H58" s="65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
@@ -6902,9 +7126,9 @@
       <c r="M58" s="52"/>
       <c r="N58" s="52"/>
       <c r="O58" s="52"/>
-      <c r="P58" s="53"/>
+      <c r="P58" s="55"/>
       <c r="Q58" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="57" customFormat="1">
@@ -6927,10 +7151,10 @@
         <v>42825</v>
       </c>
       <c r="G59" s="64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H59" s="65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I59" s="52"/>
       <c r="J59" s="52"/>
@@ -6939,9 +7163,9 @@
       <c r="M59" s="52"/>
       <c r="N59" s="52"/>
       <c r="O59" s="52"/>
-      <c r="P59" s="53"/>
+      <c r="P59" s="55"/>
       <c r="Q59" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6964,23 +7188,23 @@
         <v>42825</v>
       </c>
       <c r="G60" s="67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H60" s="74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I60" s="62"/>
       <c r="J60" s="62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K60" s="63"/>
       <c r="L60" s="63"/>
       <c r="M60" s="62"/>
       <c r="N60" s="62"/>
       <c r="O60" s="62"/>
-      <c r="P60" s="66"/>
+      <c r="P60" s="64"/>
       <c r="Q60" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="57" customFormat="1" ht="27">
@@ -7003,10 +7227,10 @@
         <v>42825</v>
       </c>
       <c r="G61" s="67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H61" s="65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I61" s="52"/>
       <c r="J61" s="52"/>
@@ -7015,9 +7239,9 @@
       <c r="M61" s="52"/>
       <c r="N61" s="52"/>
       <c r="O61" s="52"/>
-      <c r="P61" s="53"/>
+      <c r="P61" s="55"/>
       <c r="Q61" s="59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="57" customFormat="1" ht="27">
@@ -7040,13 +7264,13 @@
         <v>42825</v>
       </c>
       <c r="G62" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H62" s="65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I62" s="62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J62" s="52"/>
       <c r="K62" s="58"/>
@@ -7054,9 +7278,9 @@
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
       <c r="O62" s="52"/>
-      <c r="P62" s="53"/>
+      <c r="P62" s="55"/>
       <c r="Q62" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="57" customFormat="1" ht="27">
@@ -7079,13 +7303,13 @@
         <v>42825</v>
       </c>
       <c r="G63" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="H63" s="65" t="s">
-        <v>165</v>
-      </c>
       <c r="I63" s="62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J63" s="52"/>
       <c r="K63" s="58"/>
@@ -7093,9 +7317,9 @@
       <c r="M63" s="52"/>
       <c r="N63" s="52"/>
       <c r="O63" s="52"/>
-      <c r="P63" s="53"/>
+      <c r="P63" s="55"/>
       <c r="Q63" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="57" customFormat="1" ht="40.5">
@@ -7118,13 +7342,13 @@
         <v>42825</v>
       </c>
       <c r="G64" s="76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H64" s="65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I64" s="62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J64" s="52"/>
       <c r="K64" s="58"/>
@@ -7132,16 +7356,16 @@
       <c r="M64" s="52"/>
       <c r="N64" s="52"/>
       <c r="O64" s="52"/>
-      <c r="P64" s="53"/>
+      <c r="P64" s="55"/>
       <c r="Q64" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q64"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M36 M52:M64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M52:M64 M3:M36">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-数图_170331.xlsx
+++ b/测试单-数图_170331.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="134" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="199">
   <si>
     <t>编号</t>
   </si>
@@ -956,14 +956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同左</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,10 +977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wzp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有播报，可能音量较小误以为没有播报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1008,10 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wzp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新版本未见此现象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1020,10 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wzp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1032,10 +1012,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加确认对话框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1068,7 +1044,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhd</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后鼎看看，我提供的数据是正确的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈刚确定一下，你给我的界面和操作方式就是这样的啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4826,10 +4820,10 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
+      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4945,7 +4939,9 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="53"/>
-      <c r="Q3" s="59"/>
+      <c r="Q3" s="59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="4" spans="1:17" s="57" customFormat="1" ht="27">
       <c r="A4" s="70">
@@ -5017,14 +5013,14 @@
         <v>169</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O5" s="52" t="s">
         <v>168</v>
       </c>
       <c r="P5" s="53"/>
       <c r="Q5" s="59" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1">
@@ -5064,7 +5060,9 @@
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
       <c r="P6" s="53"/>
-      <c r="Q6" s="59"/>
+      <c r="Q6" s="59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1">
       <c r="A7" s="70">
@@ -5103,7 +5101,9 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="53"/>
-      <c r="Q7" s="59"/>
+      <c r="Q7" s="59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
       <c r="A8" s="70">
@@ -5142,7 +5142,9 @@
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
       <c r="P8" s="53"/>
-      <c r="Q8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="27">
       <c r="A9" s="70">
@@ -5175,7 +5177,7 @@
       <c r="L9" s="58"/>
       <c r="M9" s="52"/>
       <c r="N9" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O9" s="52" t="s">
         <v>170</v>
@@ -5184,7 +5186,7 @@
         <v>42828</v>
       </c>
       <c r="Q9" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1">
@@ -5218,16 +5220,16 @@
       <c r="L10" s="58"/>
       <c r="M10" s="52"/>
       <c r="N10" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O10" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P10" s="55">
         <v>42828</v>
       </c>
       <c r="Q10" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="57" customFormat="1">
@@ -5267,7 +5269,9 @@
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
       <c r="P11" s="55"/>
-      <c r="Q11" s="59"/>
+      <c r="Q11" s="59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="27">
       <c r="A12" s="70">
@@ -5292,7 +5296,7 @@
         <v>128</v>
       </c>
       <c r="H12" s="71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
@@ -5301,13 +5305,13 @@
       <c r="M12" s="52"/>
       <c r="N12" s="52"/>
       <c r="O12" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P12" s="55">
         <v>42828</v>
       </c>
       <c r="Q12" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="25" customFormat="1">
@@ -5347,9 +5351,11 @@
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
       <c r="P13" s="66"/>
-      <c r="Q13" s="59"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Q13" s="59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="27">
       <c r="A14" s="70">
         <v>12</v>
       </c>
@@ -5380,10 +5386,12 @@
       <c r="L14" s="21"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="62" t="s">
+        <v>196</v>
+      </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="59" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="27">
@@ -5422,10 +5430,10 @@
       <c r="O15" s="12"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="40.5">
       <c r="A16" s="70">
         <v>14</v>
       </c>
@@ -5456,12 +5464,16 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="62" t="s">
+        <v>198</v>
+      </c>
       <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="O16" s="62" t="s">
+        <v>197</v>
+      </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="59" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="27">
@@ -5498,9 +5510,12 @@
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P17" s="24"/>
+      <c r="Q17" s="68" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="27">
       <c r="A18" s="70">
@@ -5536,11 +5551,11 @@
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="72" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P18" s="24"/>
       <c r="Q18" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -5573,19 +5588,19 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N19" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O19" s="62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P19" s="55">
         <v>42828</v>
       </c>
       <c r="Q19" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="27">
@@ -5618,19 +5633,19 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N20" s="62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O20" s="62" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P20" s="55">
         <v>42828</v>
       </c>
       <c r="Q20" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5667,7 +5682,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="64"/>
       <c r="Q21" s="59" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="27">
@@ -5702,11 +5717,11 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P22" s="64"/>
       <c r="Q22" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="25" customFormat="1" ht="27">
@@ -5741,11 +5756,11 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P23" s="64"/>
       <c r="Q23" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="25" customFormat="1" ht="27">
@@ -5780,11 +5795,11 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P24" s="64"/>
       <c r="Q24" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="25" customFormat="1" ht="40.5">
@@ -5819,11 +5834,11 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P25" s="64"/>
       <c r="Q25" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="25" customFormat="1" ht="40.5">
@@ -5856,19 +5871,19 @@
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N26" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O26" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P26" s="64">
         <v>42828</v>
       </c>
       <c r="Q26" s="59" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="25" customFormat="1">
@@ -5907,7 +5922,7 @@
       <c r="O27" s="12"/>
       <c r="P27" s="64"/>
       <c r="Q27" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="25" customFormat="1" ht="27">
@@ -5940,17 +5955,17 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="62" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="62" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P28" s="64">
         <v>42829</v>
       </c>
       <c r="Q28" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5990,7 +6005,9 @@
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="64"/>
-      <c r="Q29" s="59"/>
+      <c r="Q29" s="59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="27">
       <c r="A30" s="70">
@@ -6022,17 +6039,17 @@
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="62" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P30" s="64">
         <v>42829</v>
       </c>
       <c r="Q30" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="27">
@@ -6065,17 +6082,17 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="62" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P31" s="64">
         <v>42829</v>
       </c>
       <c r="Q31" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6108,17 +6125,17 @@
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="62" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P32" s="64">
         <v>42829</v>
       </c>
       <c r="Q32" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="27">
@@ -6151,17 +6168,17 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="62" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P33" s="64">
         <v>42829</v>
       </c>
       <c r="Q33" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="27">
@@ -6198,11 +6215,11 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="62" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P34" s="64"/>
       <c r="Q34" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="27">
@@ -6239,7 +6256,7 @@
       <c r="O35" s="12"/>
       <c r="P35" s="64"/>
       <c r="Q35" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="40.5">
@@ -6272,17 +6289,17 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="62" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P36" s="64">
         <v>42829</v>
       </c>
       <c r="Q36" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="27">
@@ -6319,7 +6336,7 @@
       <c r="O37" s="62"/>
       <c r="P37" s="64"/>
       <c r="Q37" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6356,7 +6373,7 @@
       <c r="O38" s="62"/>
       <c r="P38" s="64"/>
       <c r="Q38" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="68" customFormat="1">
@@ -6391,17 +6408,17 @@
       <c r="K39" s="63"/>
       <c r="L39" s="63"/>
       <c r="M39" s="62" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N39" s="62"/>
       <c r="O39" s="62" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P39" s="64">
         <v>42829</v>
       </c>
       <c r="Q39" s="59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="68" customFormat="1">
@@ -6427,7 +6444,7 @@
         <v>94</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I40" s="62" t="s">
         <v>93</v>
@@ -6440,7 +6457,7 @@
       <c r="O40" s="62"/>
       <c r="P40" s="64"/>
       <c r="Q40" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="68" customFormat="1">
@@ -6479,7 +6496,7 @@
       <c r="O41" s="62"/>
       <c r="P41" s="64"/>
       <c r="Q41" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="68" customFormat="1" ht="40.5">
@@ -6518,7 +6535,7 @@
       <c r="O42" s="62"/>
       <c r="P42" s="64"/>
       <c r="Q42" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6557,7 +6574,7 @@
       <c r="O43" s="62"/>
       <c r="P43" s="64"/>
       <c r="Q43" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="68" customFormat="1" ht="40.5">
@@ -6596,7 +6613,7 @@
       <c r="O44" s="62"/>
       <c r="P44" s="64"/>
       <c r="Q44" s="59" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6631,17 +6648,17 @@
       <c r="K45" s="63"/>
       <c r="L45" s="63"/>
       <c r="M45" s="62" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N45" s="62"/>
       <c r="O45" s="62" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P45" s="64">
         <v>42830</v>
       </c>
       <c r="Q45" s="59" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="68" customFormat="1" ht="27">
@@ -6975,10 +6992,14 @@
       <c r="J54" s="52"/>
       <c r="K54" s="58"/>
       <c r="L54" s="58"/>
-      <c r="M54" s="52"/>
+      <c r="M54" s="52" t="s">
+        <v>178</v>
+      </c>
       <c r="N54" s="52"/>
       <c r="O54" s="52"/>
-      <c r="P54" s="55"/>
+      <c r="P54" s="55">
+        <v>42830</v>
+      </c>
       <c r="Q54" s="59" t="s">
         <v>167</v>
       </c>

--- a/测试单-数图_170331.xlsx
+++ b/测试单-数图_170331.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="199">
   <si>
     <t>编号</t>
   </si>
@@ -4817,13 +4817,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4903,7 +4904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="3" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A3" s="70">
         <v>1</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="4" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A4" s="70">
         <v>2</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="5" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A5" s="70">
         <v>3</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="57" customFormat="1">
+    <row r="6" spans="1:17" s="57" customFormat="1" hidden="1">
       <c r="A6" s="70">
         <v>4</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="57" customFormat="1">
+    <row r="7" spans="1:17" s="57" customFormat="1" hidden="1">
       <c r="A7" s="70">
         <v>5</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="57" customFormat="1">
+    <row r="8" spans="1:17" s="57" customFormat="1" hidden="1">
       <c r="A8" s="70">
         <v>6</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="9" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A9" s="70">
         <v>7</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="57" customFormat="1">
+    <row r="10" spans="1:17" s="57" customFormat="1" hidden="1">
       <c r="A10" s="70">
         <v>8</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="57" customFormat="1">
+    <row r="11" spans="1:17" s="57" customFormat="1" hidden="1">
       <c r="A11" s="70">
         <v>9</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="12" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A12" s="70">
         <v>10</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="25" customFormat="1">
+    <row r="13" spans="1:17" s="25" customFormat="1" hidden="1">
       <c r="A13" s="70">
         <v>11</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27">
+    <row r="14" spans="1:17" ht="27" hidden="1">
       <c r="A14" s="70">
         <v>12</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27">
+    <row r="17" spans="1:17" ht="27" hidden="1">
       <c r="A17" s="70">
         <v>15</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="27">
+    <row r="18" spans="1:17" ht="27" hidden="1">
       <c r="A18" s="70">
         <v>16</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" s="70">
         <v>17</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="27">
+    <row r="20" spans="1:17" ht="27" hidden="1">
       <c r="A20" s="70">
         <v>18</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="27">
+    <row r="22" spans="1:17" ht="27" hidden="1">
       <c r="A22" s="70">
         <v>20</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="25" customFormat="1" ht="27">
+    <row r="23" spans="1:17" s="25" customFormat="1" ht="27" hidden="1">
       <c r="A23" s="70">
         <v>21</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="25" customFormat="1" ht="27">
+    <row r="24" spans="1:17" s="25" customFormat="1" ht="27" hidden="1">
       <c r="A24" s="70">
         <v>22</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="25" customFormat="1" ht="40.5">
+    <row r="25" spans="1:17" s="25" customFormat="1" ht="40.5" hidden="1">
       <c r="A25" s="70">
         <v>23</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="25" customFormat="1" ht="40.5">
+    <row r="26" spans="1:17" s="25" customFormat="1" ht="40.5" hidden="1">
       <c r="A26" s="70">
         <v>24</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="25" customFormat="1" ht="27">
+    <row r="28" spans="1:17" s="25" customFormat="1" ht="27" hidden="1">
       <c r="A28" s="70">
         <v>26</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" s="70">
         <v>27</v>
       </c>
@@ -6009,7 +6010,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="27">
+    <row r="30" spans="1:17" ht="27" hidden="1">
       <c r="A30" s="70">
         <v>28</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="27">
+    <row r="31" spans="1:17" ht="27" hidden="1">
       <c r="A31" s="70">
         <v>29</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" s="70">
         <v>30</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="27">
+    <row r="33" spans="1:17" ht="27" hidden="1">
       <c r="A33" s="70">
         <v>31</v>
       </c>
@@ -6181,7 +6182,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="27">
+    <row r="34" spans="1:17" ht="27" hidden="1">
       <c r="A34" s="70">
         <v>32</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="27">
+    <row r="35" spans="1:17" ht="27" hidden="1">
       <c r="A35" s="70">
         <v>33</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="40.5">
+    <row r="36" spans="1:17" ht="40.5" hidden="1">
       <c r="A36" s="70">
         <v>34</v>
       </c>
@@ -6331,10 +6332,14 @@
       <c r="J37" s="62"/>
       <c r="K37" s="63"/>
       <c r="L37" s="63"/>
-      <c r="M37" s="62"/>
+      <c r="M37" s="52" t="s">
+        <v>178</v>
+      </c>
       <c r="N37" s="62"/>
       <c r="O37" s="62"/>
-      <c r="P37" s="64"/>
+      <c r="P37" s="55">
+        <v>42830</v>
+      </c>
       <c r="Q37" s="59" t="s">
         <v>193</v>
       </c>
@@ -6376,7 +6381,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="68" customFormat="1">
+    <row r="39" spans="1:17" s="68" customFormat="1" hidden="1">
       <c r="A39" s="70">
         <v>37</v>
       </c>
@@ -6616,7 +6621,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="68" customFormat="1" ht="27">
+    <row r="45" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
       <c r="A45" s="70">
         <v>43</v>
       </c>
@@ -6661,7 +6666,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="68" customFormat="1" ht="27">
+    <row r="46" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
       <c r="A46" s="70">
         <v>44</v>
       </c>
@@ -6700,7 +6705,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="68" customFormat="1">
+    <row r="47" spans="1:17" s="68" customFormat="1" hidden="1">
       <c r="A47" s="70">
         <v>45</v>
       </c>
@@ -6739,7 +6744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="68" customFormat="1" ht="27">
+    <row r="48" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
       <c r="A48" s="70">
         <v>46</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="68" customFormat="1" ht="27">
+    <row r="49" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
       <c r="A49" s="70">
         <v>47</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="68" customFormat="1" ht="27">
+    <row r="50" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
       <c r="A50" s="70">
         <v>48</v>
       </c>
@@ -6850,7 +6855,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="68" customFormat="1" ht="202.5">
+    <row r="51" spans="1:17" s="68" customFormat="1" ht="202.5" hidden="1">
       <c r="A51" s="70">
         <v>49</v>
       </c>
@@ -6889,7 +6894,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="52" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A52" s="70">
         <v>50</v>
       </c>
@@ -6926,7 +6931,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="57" customFormat="1" ht="40.5">
+    <row r="53" spans="1:17" s="57" customFormat="1" ht="40.5" hidden="1">
       <c r="A53" s="70">
         <v>51</v>
       </c>
@@ -7041,7 +7046,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="56" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="70">
         <v>54</v>
       </c>
@@ -7078,7 +7083,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="57" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A57" s="70">
         <v>55</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="58" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="70">
         <v>56</v>
       </c>
@@ -7152,7 +7157,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="57" customFormat="1">
+    <row r="59" spans="1:17" s="57" customFormat="1" hidden="1">
       <c r="A59" s="70">
         <v>57</v>
       </c>
@@ -7189,7 +7194,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="68" customFormat="1" ht="27">
+    <row r="60" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="70">
         <v>58</v>
       </c>
@@ -7265,7 +7270,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="62" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A62" s="70">
         <v>60</v>
       </c>
@@ -7304,7 +7309,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="57" customFormat="1" ht="27">
+    <row r="63" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
       <c r="A63" s="70">
         <v>61</v>
       </c>
@@ -7343,7 +7348,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="57" customFormat="1" ht="40.5">
+    <row r="64" spans="1:17" s="57" customFormat="1" ht="40.5" hidden="1">
       <c r="A64" s="70">
         <v>62</v>
       </c>
@@ -7383,10 +7388,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q64"/>
+  <autoFilter ref="A2:Q64">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="W"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M52:M64 M3:M36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M52:M64 M3:M37">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-数图_170331.xlsx
+++ b/测试单-数图_170331.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="134" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="249">
   <si>
     <t>编号</t>
   </si>
@@ -85,14 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注/修改原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Lisa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,9 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打开一本书播放，第一次进入功能菜单时，没有tts播报</t>
-  </si>
-  <si>
     <t>第一次进入，tts播报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,9 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资源检索</t>
-  </si>
-  <si>
     <t>有声读物-书签中的时间播报不对。应该是几分几秒的，播成了几点几分。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书签跳转位置不对。不论选择哪个章节的书签，都跳转到第一章相应页码。【样例】散文--无须证实的爱、古典文学--狄公案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清空书签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +217,6 @@
   </si>
   <si>
     <t>电子图书，我的阅读历史列表，打开一本书朗读后，退出阅读历史列表再进才更新。=》应该实时更新。只要退出朗读就更新。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我收藏的资源进入读电子书，功能菜单--背景音乐，在音乐选择上按OK后，会退到主界面。512+8 B1#机器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,10 +447,6 @@
   </si>
   <si>
     <t>有声读物，没有断点记忆、路径记忆？=》进入书的章节的路径应该记忆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录，填完信息后选“登录”后提示“xxx用户名密码不正确”。不符实际原因是网络未连接。=》改为“登录失败，网络未连接或者账号错误”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -937,34 +911,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑框无法滚动显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
-    <t>添加确认对话框</t>
+    <t>zhd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受建议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -973,11 +931,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>有播报，可能音量较小误以为没有播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>添加提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有下载内容变化时才刷新列表和播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在所有功能菜单中删除确认对话框选否后，返回列表时增加朗读当前焦点行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加确认对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从朗读界面返回时刷新阅读历史列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放界面，标题栏书名，目前规格实现为仅显示部分字符。=》建议改为滚动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新定义按键功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>接受建议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有播报，可能音量较小误以为没有播报</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注/修改原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有编辑框编辑时朗读方式保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑框无法滚动显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有编辑框编辑时朗读方式保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在有编辑框界面，退出时都增加确认对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在有编辑框界面，退出时都增加确认对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加确认对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加列表图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不增加，尚需要其它信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数点在尾部时要转义朗读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加无效键提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用相同提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待讨论结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录、注册、密码找回等界面在编辑框为空时提示错误后焦点定位到该编辑栏位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改提示信息颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有按键时新提示音打断已播报发音。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不调用禁止休眠的方法，允许休眠。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -985,46 +1153,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>添加提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有下载内容变化时才刷新列表和播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版本未见此现象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在所有功能菜单中删除确认对话框选否后，返回列表时增加朗读当前焦点行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风格保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加确认对话框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从朗读界面返回时刷新阅读历史列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风格保持一致</t>
+    <t>需要服务器端处理，与盲文社联系，请他们协助解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步添加语音音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的阅读历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1032,29 +1177,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>播放界面，标题栏书名，目前规格实现为仅显示部分字符。=》建议改为滚动方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加列表图标</t>
+    <t>TTS公共功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳至本章百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲人资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后鼎看看，我提供的数据是正确的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1062,7 +1217,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
+    <t>待讨论，当初似乎约定不需要功能菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书签管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能菜单成功后退回到播放界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书签跳转位置不对。不论选择哪个章节的书签，都跳转到第一章相应页码。【样例】散文--无须证实的爱、古典文学--狄公案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新安装APK后，打开一本书播放，第一次进入功能菜单时，没有tts播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我收藏的资源进入读电子书，功能菜单--背景音乐，在音乐选择上按OK后，会退到主界面。512+8 B1#机器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过卸载APP，然后安装，从电子图书播放界面进入功能菜单，有tts播报。可能是在刷新固件后，第一次进入电子书的功能菜单会出现该现象，尚需验证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经测试，未建文件夹或文件夹下无音乐文件时会出现此现象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本书签列表中未见“上次阅读”项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，填完信息后选“登录”后提示“xxx用户名密码不正确”。不符实际原因是网络未连接。=》改为“登录失败，网络未连接或者账号错误”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在TTS中时间的播报，格式为“xx:xx”时默认播时分，建议格式放完整“xx:xx:xx”，或者把时间中的冒号转换成中文。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3448,7 +3651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3476,12 +3679,6 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3626,9 +3823,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3678,6 +3872,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4644,169 +4853,169 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="5.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="9" style="18"/>
-    <col min="5" max="5" width="10.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="52.5" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="5.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="10.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="52.5" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1">
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="31" t="s">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>42818</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="42">
         <v>42815</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>156</v>
+      <c r="F3" s="41" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>42820</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="17">
         <v>42819</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="27" customFormat="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="48"/>
+      <c r="F4" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="25" customFormat="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="35"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="35"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="35"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="35"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="35"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="35"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="35"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="35"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:7" s="25" customFormat="1">
-      <c r="B15" s="40"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:7" s="25" customFormat="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" spans="2:6" s="25" customFormat="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="2:6" s="25" customFormat="1">
-      <c r="B18" s="41"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="42"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" s="23" customFormat="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" s="23" customFormat="1">
+      <c r="B16" s="38"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="2:6" s="23" customFormat="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="2:6" s="23" customFormat="1">
+      <c r="B18" s="39"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4817,42 +5026,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="50" customWidth="1"/>
-    <col min="4" max="5" width="9" style="50"/>
-    <col min="6" max="6" width="14.375" style="50" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="50" customWidth="1"/>
-    <col min="8" max="8" width="77.375" style="49" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="50" customWidth="1"/>
-    <col min="10" max="10" width="7" style="50" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="50" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="50" customWidth="1"/>
-    <col min="13" max="14" width="9" style="50"/>
-    <col min="15" max="15" width="23.75" style="50" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="5.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="48" customWidth="1"/>
+    <col min="4" max="5" width="9" style="48"/>
+    <col min="6" max="6" width="14.375" style="48" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="48" customWidth="1"/>
+    <col min="8" max="8" width="77.375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="48" customWidth="1"/>
+    <col min="10" max="10" width="7" style="48" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="48" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="48" customWidth="1"/>
+    <col min="13" max="14" width="9" style="48"/>
+    <col min="15" max="15" width="23.75" style="65" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="65"/>
+    <col min="18" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="75" t="s">
-        <v>162</v>
+      <c r="A1" s="72" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4862,10 +5071,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -4894,2510 +5103,2710 @@
       <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q2" s="75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A3" s="67">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="51">
+        <v>42763</v>
+      </c>
+      <c r="E3" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F3" s="52">
+        <v>42811</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="56"/>
+      <c r="L3" s="51">
+        <v>42815</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="61">
+        <v>42814</v>
+      </c>
+      <c r="Q3" s="74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A4" s="67">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="51">
+        <v>42763</v>
+      </c>
+      <c r="E4" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F4" s="52">
+        <v>42811</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="P4" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q4" s="74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A5" s="67">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="51">
+        <v>42763</v>
+      </c>
+      <c r="E5" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F5" s="52">
+        <v>42811</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q5" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A6" s="67">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="51">
+        <v>42809</v>
+      </c>
+      <c r="E6" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F6" s="52">
+        <v>42813</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="51">
+        <v>42815</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="P6" s="61">
+        <v>42814</v>
+      </c>
+      <c r="Q6" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A7" s="67">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="51">
+        <v>42809</v>
+      </c>
+      <c r="E7" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F7" s="52">
+        <v>42813</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="51">
+        <v>42820</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="61">
+        <v>42819</v>
+      </c>
+      <c r="Q7" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A8" s="67">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="51">
+        <v>42809</v>
+      </c>
+      <c r="E8" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F8" s="52">
+        <v>42813</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="56"/>
+      <c r="L8" s="51">
+        <v>42820</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="P8" s="61">
+        <v>42819</v>
+      </c>
+      <c r="Q8" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A9" s="67">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="51">
+        <v>42809</v>
+      </c>
+      <c r="E9" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F9" s="52">
+        <v>42813</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="P9" s="61">
+        <v>42828</v>
+      </c>
+      <c r="Q9" s="74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="55" customFormat="1">
+      <c r="A10" s="67">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="51">
+        <v>42809</v>
+      </c>
+      <c r="E10" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F10" s="52">
+        <v>42813</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="61">
+        <v>42828</v>
+      </c>
+      <c r="Q10" s="74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="55" customFormat="1" ht="40.5">
+      <c r="A11" s="67">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="51">
+        <v>42809</v>
+      </c>
+      <c r="E11" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F11" s="52">
+        <v>42813</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="51">
+        <v>42820</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N11" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="P11" s="61">
+        <v>42819</v>
+      </c>
+      <c r="Q11" s="74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A12" s="67">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="51">
+        <v>42809</v>
+      </c>
+      <c r="E12" s="51">
+        <v>42777</v>
+      </c>
+      <c r="F12" s="52">
+        <v>42813</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12" s="61">
+        <v>42828</v>
+      </c>
+      <c r="Q12" s="74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="23" customFormat="1" ht="27">
+      <c r="A13" s="67">
+        <v>11</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="63">
+        <v>42812</v>
+      </c>
+      <c r="E13" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F13" s="63">
+        <v>42814</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="60"/>
+      <c r="L13" s="63">
+        <v>42820</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="O13" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="P13" s="61">
+        <v>42819</v>
+      </c>
+      <c r="Q13" s="74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="67.5">
+      <c r="A14" s="67">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A3" s="70">
-        <v>1</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="D14" s="22">
+        <v>42812</v>
+      </c>
+      <c r="E14" s="22">
+        <v>42777</v>
+      </c>
+      <c r="F14" s="22">
+        <v>42814</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="27">
+      <c r="A15" s="67">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="22">
+        <v>42812</v>
+      </c>
+      <c r="E15" s="22">
+        <v>42777</v>
+      </c>
+      <c r="F15" s="22">
+        <v>42814</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="40.5">
+      <c r="A16" s="67">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="22">
+        <v>42812</v>
+      </c>
+      <c r="E16" s="22">
+        <v>42777</v>
+      </c>
+      <c r="F16" s="22">
+        <v>42814</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="27">
+      <c r="A17" s="67">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="22">
+        <v>42812</v>
+      </c>
+      <c r="E17" s="22">
+        <v>42777</v>
+      </c>
+      <c r="F17" s="22">
+        <v>42814</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="27">
+      <c r="A18" s="67">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="22">
+        <v>42812</v>
+      </c>
+      <c r="E18" s="22">
+        <v>42777</v>
+      </c>
+      <c r="F18" s="22">
+        <v>42814</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="74"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="67">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="22">
+        <v>42812</v>
+      </c>
+      <c r="E19" s="22">
+        <v>42777</v>
+      </c>
+      <c r="F19" s="22">
+        <v>42814</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" s="61">
+        <v>42828</v>
+      </c>
+      <c r="Q19" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="27">
+      <c r="A20" s="67">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="22">
+        <v>42812</v>
+      </c>
+      <c r="E20" s="22">
+        <v>42777</v>
+      </c>
+      <c r="F20" s="22">
+        <v>42814</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" s="61">
+        <v>42828</v>
+      </c>
+      <c r="Q20" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="27">
+      <c r="A21" s="67">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="22">
+        <v>42812</v>
+      </c>
+      <c r="E21" s="22">
+        <v>42777</v>
+      </c>
+      <c r="F21" s="22">
+        <v>42814</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q21" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="81">
+      <c r="A22" s="67">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E22" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F22" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="23" customFormat="1" ht="40.5">
+      <c r="A23" s="67">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E23" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F23" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="23" customFormat="1" ht="27">
+      <c r="A24" s="67">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E24" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F24" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="74" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="23" customFormat="1" ht="40.5">
+      <c r="A25" s="67">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E25" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F25" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="74"/>
+    </row>
+    <row r="26" spans="1:17" s="23" customFormat="1" ht="40.5">
+      <c r="A26" s="67">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E26" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F26" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N26" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="61">
+        <v>42828</v>
+      </c>
+      <c r="Q26" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="23" customFormat="1" ht="27">
+      <c r="A27" s="67">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E27" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F27" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="74"/>
+    </row>
+    <row r="28" spans="1:17" s="23" customFormat="1" ht="27">
+      <c r="A28" s="67">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E28" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F28" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="61">
+        <v>42829</v>
+      </c>
+      <c r="Q28" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="67">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E29" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F29" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="63">
+        <v>42822</v>
+      </c>
+      <c r="M29" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="O29" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="P29" s="61">
+        <v>42821</v>
+      </c>
+      <c r="Q29" s="74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="27">
+      <c r="A30" s="67">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E30" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F30" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" s="61">
+        <v>42829</v>
+      </c>
+      <c r="Q30" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="27">
+      <c r="A31" s="67">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="22">
+        <v>42815</v>
+      </c>
+      <c r="E31" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F31" s="22">
+        <v>42818</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N31" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="O31" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="P31" s="61">
+        <v>42829</v>
+      </c>
+      <c r="Q31" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="67">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="22">
+        <v>42819</v>
+      </c>
+      <c r="E32" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F32" s="22">
+        <v>42820</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="P32" s="61">
+        <v>42829</v>
+      </c>
+      <c r="Q32" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="27">
+      <c r="A33" s="67">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="22">
+        <v>42819</v>
+      </c>
+      <c r="E33" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F33" s="22">
+        <v>42820</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N33" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="P33" s="61">
+        <v>42829</v>
+      </c>
+      <c r="Q33" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="27">
+      <c r="A34" s="67">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="22">
+        <v>42820</v>
+      </c>
+      <c r="E34" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F34" s="22">
+        <v>42821</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q34" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="27">
+      <c r="A35" s="67">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="22">
+        <v>42820</v>
+      </c>
+      <c r="E35" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F35" s="22">
+        <v>42821</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N35" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="O35" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="P35" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q35" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="40.5">
+      <c r="A36" s="67">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="22">
+        <v>42820</v>
+      </c>
+      <c r="E36" s="22">
+        <v>42812</v>
+      </c>
+      <c r="F36" s="22">
+        <v>42821</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="O36" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="P36" s="61">
+        <v>42829</v>
+      </c>
+      <c r="Q36" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="27">
+      <c r="A37" s="67">
+        <v>35</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E37" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F37" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q37" s="74" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="65" customFormat="1" ht="27">
+      <c r="A38" s="67">
+        <v>36</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E38" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F38" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G38" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="O38" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="P38" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q38" s="74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="65" customFormat="1">
+      <c r="A39" s="67">
+        <v>37</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E39" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F39" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G39" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="59"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="P39" s="61">
+        <v>42829</v>
+      </c>
+      <c r="Q39" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="65" customFormat="1">
+      <c r="A40" s="67">
+        <v>38</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E40" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F40" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G40" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="65" customFormat="1">
+      <c r="A41" s="67">
+        <v>39</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E41" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F41" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="59"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="65" customFormat="1" ht="40.5">
+      <c r="A42" s="67">
+        <v>40</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E42" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F42" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G42" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="65" customFormat="1" ht="27">
+      <c r="A43" s="67">
+        <v>41</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E43" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F43" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="59"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="65" customFormat="1" ht="40.5">
+      <c r="A44" s="67">
+        <v>42</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E44" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F44" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" s="59"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="65" customFormat="1" ht="27">
+      <c r="A45" s="67">
+        <v>43</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E45" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F45" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="59"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N45" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="O45" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="P45" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q45" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="65" customFormat="1" ht="27">
+      <c r="A46" s="67">
+        <v>44</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E46" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F46" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G46" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="59"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="N46" s="59"/>
+      <c r="O46" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="65" customFormat="1">
+      <c r="A47" s="67">
+        <v>45</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E47" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F47" s="63">
+        <v>42821</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" s="59"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="N47" s="59"/>
+      <c r="O47" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="65" customFormat="1" ht="27">
+      <c r="A48" s="67">
+        <v>46</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E48" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F48" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N48" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="O48" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="P48" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q48" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="65" customFormat="1" ht="27">
+      <c r="A49" s="67">
+        <v>47</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E49" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F49" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N49" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="O49" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="P49" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q49" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="65" customFormat="1" ht="27">
+      <c r="A50" s="67">
+        <v>48</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E50" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F50" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G50" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="65" customFormat="1" ht="202.5">
+      <c r="A51" s="67">
+        <v>49</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E51" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F51" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G51" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="59"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N51" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="O51" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="P51" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q51" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A52" s="67">
+        <v>50</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E52" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F52" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G52" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N52" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="O52" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="P52" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q52" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="55" customFormat="1" ht="40.5">
+      <c r="A53" s="67">
+        <v>51</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E53" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F53" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G53" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N53" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="O53" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="P53" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q53" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="55" customFormat="1" ht="40.5">
+      <c r="A54" s="67">
+        <v>52</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E54" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F54" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G54" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N54" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="O54" s="59"/>
+      <c r="P54" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q54" s="74" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A55" s="67">
+        <v>53</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E55" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F55" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G55" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A56" s="67">
+        <v>54</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E56" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F56" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G56" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" s="50"/>
+      <c r="O56" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="P56" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q56" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A57" s="67">
+        <v>55</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E57" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F57" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G57" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N57" s="50"/>
+      <c r="O57" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="P57" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q57" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A58" s="67">
+        <v>56</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E58" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F58" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G58" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N58" s="50"/>
+      <c r="O58" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="P58" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q58" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="55" customFormat="1">
+      <c r="A59" s="67">
+        <v>57</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E59" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F59" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G59" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N59" s="50"/>
+      <c r="O59" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="P59" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q59" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="65" customFormat="1" ht="27">
+      <c r="A60" s="67">
+        <v>58</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E60" s="63">
+        <v>42777</v>
+      </c>
+      <c r="F60" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G60" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="74"/>
+    </row>
+    <row r="61" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A61" s="67">
+        <v>59</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="63">
+        <v>42820</v>
+      </c>
+      <c r="E61" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F61" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G61" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A62" s="67">
         <v>60</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="53">
-        <v>42763</v>
-      </c>
-      <c r="E3" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F3" s="54">
-        <v>42811</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="53">
-        <v>42815</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A4" s="70">
-        <v>2</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="53">
-        <v>42763</v>
-      </c>
-      <c r="E4" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F4" s="54">
-        <v>42811</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A5" s="70">
-        <v>3</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="53">
-        <v>42763</v>
-      </c>
-      <c r="E5" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F5" s="54">
-        <v>42811</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="57" customFormat="1" hidden="1">
-      <c r="A6" s="70">
-        <v>4</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="53">
-        <v>42809</v>
-      </c>
-      <c r="E6" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F6" s="54">
-        <v>42813</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="53">
-        <v>42815</v>
-      </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="57" customFormat="1" hidden="1">
-      <c r="A7" s="70">
-        <v>5</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="53">
-        <v>42809</v>
-      </c>
-      <c r="E7" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F7" s="54">
-        <v>42813</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="53">
+      <c r="B62" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="63">
         <v>42820</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="57" customFormat="1" hidden="1">
-      <c r="A8" s="70">
-        <v>6</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="53">
-        <v>42809</v>
-      </c>
-      <c r="E8" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F8" s="54">
-        <v>42813</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="53">
+      <c r="E62" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F62" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G62" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="I62" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62" s="50"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N62" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="O62" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="P62" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q62" s="74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="55" customFormat="1" ht="27">
+      <c r="A63" s="67">
+        <v>61</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="63">
         <v>42820</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A9" s="70">
-        <v>7</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="53">
-        <v>42809</v>
-      </c>
-      <c r="E9" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F9" s="54">
-        <v>42813</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="O9" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="P9" s="55">
-        <v>42828</v>
-      </c>
-      <c r="Q9" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="57" customFormat="1" hidden="1">
-      <c r="A10" s="70">
-        <v>8</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="53">
-        <v>42809</v>
-      </c>
-      <c r="E10" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F10" s="54">
-        <v>42813</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="O10" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="P10" s="55">
-        <v>42828</v>
-      </c>
-      <c r="Q10" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="57" customFormat="1" hidden="1">
-      <c r="A11" s="70">
-        <v>9</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="53">
-        <v>42809</v>
-      </c>
-      <c r="E11" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F11" s="54">
-        <v>42813</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="53">
+      <c r="E63" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F63" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G63" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="H63" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="J63" s="50"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N63" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="O63" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="P63" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q63" s="74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="55" customFormat="1" ht="40.5">
+      <c r="A64" s="67">
+        <v>62</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="63">
         <v>42820</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A12" s="70">
-        <v>10</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="53">
-        <v>42809</v>
-      </c>
-      <c r="E12" s="53">
-        <v>42777</v>
-      </c>
-      <c r="F12" s="54">
-        <v>42813</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="71" t="s">
+      <c r="E64" s="63">
+        <v>42812</v>
+      </c>
+      <c r="F64" s="63">
+        <v>42825</v>
+      </c>
+      <c r="G64" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="H64" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I64" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="J64" s="50"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N64" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="O64" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="P64" s="61">
+        <v>42830</v>
+      </c>
+      <c r="Q64" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="P12" s="55">
-        <v>42828</v>
-      </c>
-      <c r="Q12" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="25" customFormat="1" hidden="1">
-      <c r="A13" s="70">
-        <v>11</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="66">
-        <v>42812</v>
-      </c>
-      <c r="E13" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F13" s="66">
-        <v>42814</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="66">
-        <v>42820</v>
-      </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="27" hidden="1">
-      <c r="A14" s="70">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="24">
-        <v>42812</v>
-      </c>
-      <c r="E14" s="24">
-        <v>42777</v>
-      </c>
-      <c r="F14" s="24">
-        <v>42814</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="27">
-      <c r="A15" s="70">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="24">
-        <v>42812</v>
-      </c>
-      <c r="E15" s="24">
-        <v>42777</v>
-      </c>
-      <c r="F15" s="24">
-        <v>42814</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="40.5">
-      <c r="A16" s="70">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="24">
-        <v>42812</v>
-      </c>
-      <c r="E16" s="24">
-        <v>42777</v>
-      </c>
-      <c r="F16" s="24">
-        <v>42814</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="27" hidden="1">
-      <c r="A17" s="70">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="24">
-        <v>42812</v>
-      </c>
-      <c r="E17" s="24">
-        <v>42777</v>
-      </c>
-      <c r="F17" s="24">
-        <v>42814</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="27" hidden="1">
-      <c r="A18" s="70">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="24">
-        <v>42812</v>
-      </c>
-      <c r="E18" s="24">
-        <v>42777</v>
-      </c>
-      <c r="F18" s="24">
-        <v>42814</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" hidden="1">
-      <c r="A19" s="70">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="24">
-        <v>42812</v>
-      </c>
-      <c r="E19" s="24">
-        <v>42777</v>
-      </c>
-      <c r="F19" s="24">
-        <v>42814</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="N19" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="O19" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="P19" s="55">
-        <v>42828</v>
-      </c>
-      <c r="Q19" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="27" hidden="1">
-      <c r="A20" s="70">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="24">
-        <v>42812</v>
-      </c>
-      <c r="E20" s="24">
-        <v>42777</v>
-      </c>
-      <c r="F20" s="24">
-        <v>42814</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="N20" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="O20" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="P20" s="55">
-        <v>42828</v>
-      </c>
-      <c r="Q20" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="70">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="24">
-        <v>42812</v>
-      </c>
-      <c r="E21" s="24">
-        <v>42777</v>
-      </c>
-      <c r="F21" s="24">
-        <v>42814</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="27" hidden="1">
-      <c r="A22" s="70">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E22" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F22" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="25" customFormat="1" ht="27" hidden="1">
-      <c r="A23" s="70">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E23" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F23" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="25" customFormat="1" ht="27" hidden="1">
-      <c r="A24" s="70">
-        <v>22</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E24" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F24" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="25" customFormat="1" ht="40.5" hidden="1">
-      <c r="A25" s="70">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E25" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F25" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="25" customFormat="1" ht="40.5" hidden="1">
-      <c r="A26" s="70">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E26" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F26" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="N26" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="O26" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="P26" s="64">
-        <v>42828</v>
-      </c>
-      <c r="Q26" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="25" customFormat="1">
-      <c r="A27" s="70">
-        <v>25</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E27" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F27" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="25" customFormat="1" ht="27" hidden="1">
-      <c r="A28" s="70">
-        <v>26</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E28" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F28" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="N28" s="12"/>
-      <c r="O28" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="P28" s="64">
-        <v>42829</v>
-      </c>
-      <c r="Q28" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1">
-      <c r="A29" s="70">
-        <v>27</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E29" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F29" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="66">
-        <v>42822</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="27" hidden="1">
-      <c r="A30" s="70">
-        <v>28</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E30" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F30" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="P30" s="64">
-        <v>42829</v>
-      </c>
-      <c r="Q30" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="27" hidden="1">
-      <c r="A31" s="70">
-        <v>29</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="24">
-        <v>42815</v>
-      </c>
-      <c r="E31" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F31" s="24">
-        <v>42818</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="P31" s="64">
-        <v>42829</v>
-      </c>
-      <c r="Q31" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1">
-      <c r="A32" s="70">
-        <v>30</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="24">
-        <v>42819</v>
-      </c>
-      <c r="E32" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F32" s="24">
-        <v>42820</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="N32" s="12"/>
-      <c r="O32" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="P32" s="64">
-        <v>42829</v>
-      </c>
-      <c r="Q32" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="27" hidden="1">
-      <c r="A33" s="70">
-        <v>31</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="24">
-        <v>42819</v>
-      </c>
-      <c r="E33" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F33" s="24">
-        <v>42820</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="P33" s="64">
-        <v>42829</v>
-      </c>
-      <c r="Q33" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="27" hidden="1">
-      <c r="A34" s="70">
-        <v>32</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="24">
-        <v>42820</v>
-      </c>
-      <c r="E34" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F34" s="24">
-        <v>42821</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="27" hidden="1">
-      <c r="A35" s="70">
-        <v>33</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="24">
-        <v>42820</v>
-      </c>
-      <c r="E35" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F35" s="24">
-        <v>42821</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="40.5" hidden="1">
-      <c r="A36" s="70">
-        <v>34</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="24">
-        <v>42820</v>
-      </c>
-      <c r="E36" s="24">
-        <v>42812</v>
-      </c>
-      <c r="F36" s="24">
-        <v>42821</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="N36" s="12"/>
-      <c r="O36" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="P36" s="64">
-        <v>42829</v>
-      </c>
-      <c r="Q36" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="27">
-      <c r="A37" s="70">
-        <v>35</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E37" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F37" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G37" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="55">
-        <v>42830</v>
-      </c>
-      <c r="Q37" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="68" customFormat="1" ht="27">
-      <c r="A38" s="70">
-        <v>36</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E38" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F38" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="68" customFormat="1" hidden="1">
-      <c r="A39" s="70">
-        <v>37</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E39" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F39" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G39" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="P39" s="64">
-        <v>42829</v>
-      </c>
-      <c r="Q39" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="68" customFormat="1">
-      <c r="A40" s="70">
-        <v>38</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E40" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F40" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="I40" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="J40" s="62"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="68" customFormat="1">
-      <c r="A41" s="70">
-        <v>39</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E41" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F41" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G41" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="I41" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" s="62"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="68" customFormat="1" ht="40.5">
-      <c r="A42" s="70">
-        <v>40</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E42" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F42" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G42" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="J42" s="62"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="68" customFormat="1" ht="27">
-      <c r="A43" s="70">
-        <v>41</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E43" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F43" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G43" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="I43" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="J43" s="62"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="68" customFormat="1" ht="40.5">
-      <c r="A44" s="70">
-        <v>42</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E44" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F44" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="J44" s="62"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
-      <c r="A45" s="70">
-        <v>43</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E45" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F45" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G45" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="I45" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="J45" s="62"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="P45" s="64">
-        <v>42830</v>
-      </c>
-      <c r="Q45" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
-      <c r="A46" s="70">
-        <v>44</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E46" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F46" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G46" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H46" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="J46" s="62"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="68" customFormat="1" hidden="1">
-      <c r="A47" s="70">
-        <v>45</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E47" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F47" s="66">
-        <v>42821</v>
-      </c>
-      <c r="G47" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" s="62"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
-      <c r="A48" s="70">
-        <v>46</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E48" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F48" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G48" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
-      <c r="A49" s="70">
-        <v>47</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E49" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F49" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G49" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
-      <c r="A50" s="70">
-        <v>48</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E50" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F50" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G50" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="68" customFormat="1" ht="202.5" hidden="1">
-      <c r="A51" s="70">
-        <v>49</v>
-      </c>
-      <c r="B51" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E51" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F51" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G51" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="I51" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="J51" s="62"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A52" s="70">
-        <v>50</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E52" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F52" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G52" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="57" customFormat="1" ht="40.5" hidden="1">
-      <c r="A53" s="70">
-        <v>51</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E53" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F53" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G53" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="H53" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="57" customFormat="1" ht="40.5">
-      <c r="A54" s="70">
-        <v>52</v>
-      </c>
-      <c r="B54" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E54" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F54" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G54" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="55">
-        <v>42830</v>
-      </c>
-      <c r="Q54" s="59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="57" customFormat="1" ht="27">
-      <c r="A55" s="70">
-        <v>53</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E55" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F55" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G55" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A56" s="70">
-        <v>54</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E56" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F56" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G56" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A57" s="70">
-        <v>55</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E57" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F57" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G57" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A58" s="70">
-        <v>56</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E58" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F58" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G58" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="H58" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="57" customFormat="1" hidden="1">
-      <c r="A59" s="70">
-        <v>57</v>
-      </c>
-      <c r="B59" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E59" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F59" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G59" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="H59" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="68" customFormat="1" ht="27" hidden="1">
-      <c r="A60" s="70">
-        <v>58</v>
-      </c>
-      <c r="B60" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E60" s="66">
-        <v>42777</v>
-      </c>
-      <c r="F60" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G60" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="H60" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="57" customFormat="1" ht="27">
-      <c r="A61" s="70">
-        <v>59</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E61" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F61" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G61" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="H61" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A62" s="70">
-        <v>60</v>
-      </c>
-      <c r="B62" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E62" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F62" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="H62" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="I62" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="J62" s="52"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="57" customFormat="1" ht="27" hidden="1">
-      <c r="A63" s="70">
-        <v>61</v>
-      </c>
-      <c r="B63" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E63" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F63" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G63" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="H63" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I63" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="J63" s="52"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="57" customFormat="1" ht="40.5" hidden="1">
-      <c r="A64" s="70">
-        <v>62</v>
-      </c>
-      <c r="B64" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="66">
-        <v>42820</v>
-      </c>
-      <c r="E64" s="66">
-        <v>42812</v>
-      </c>
-      <c r="F64" s="66">
-        <v>42825</v>
-      </c>
-      <c r="G64" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="H64" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="I64" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="J64" s="52"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="58"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="59" t="s">
-        <v>166</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q64">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="W"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:Q64"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M52:M64 M3:M37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M38 M40:M64">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
